--- a/results/Testing_Results.xlsx
+++ b/results/Testing_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3779EB9-046B-4F33-BC72-2B17B3AC9C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621FC3FE-E500-4B80-827E-23CE077D13C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{A56F28F5-47F8-49C1-97CE-B398F9CE5D83}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="7" xr2:uid="{A56F28F5-47F8-49C1-97CE-B398F9CE5D83}"/>
   </bookViews>
   <sheets>
     <sheet name="STAT" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="28">
   <si>
     <t>N=5</t>
   </si>
@@ -121,24 +121,6 @@
     <t>N=10</t>
   </si>
   <si>
-    <t>Differenza percentuale su BO con buoni prior: +22%</t>
-  </si>
-  <si>
-    <t>Differenza percentuale su DCBO con buoni prior: +22%</t>
-  </si>
-  <si>
-    <t>Differenza percentuale con buoni prior: +22%</t>
-  </si>
-  <si>
-    <t>Differenza percentuale su BO con cattivi prior: -1%</t>
-  </si>
-  <si>
-    <t>Differenza percentuale su DCBO con cattivi prior: -1%</t>
-  </si>
-  <si>
-    <t>Differenza percentuale con cattivi prior: -1%</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
@@ -158,6 +140,15 @@
   </si>
   <si>
     <t>ECON</t>
+  </si>
+  <si>
+    <t>Average Gap (higher is better, 0&lt;=G&lt;=1)</t>
+  </si>
+  <si>
+    <t>Average Execution Times per Iteration (lower is better)</t>
+  </si>
+  <si>
+    <t>s/it</t>
   </si>
 </sst>
 </file>
@@ -195,15 +186,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,11 +229,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,12 +255,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2ED3D-7AFB-48BA-B2CB-2B77E946B044}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +708,7 @@
         <v>0.51</v>
       </c>
       <c r="I5" s="4">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -712,7 +766,7 @@
         <v>0.59</v>
       </c>
       <c r="I7" s="4">
-        <v>0.13500000000000001</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1135,7 +1189,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H21"/>
+      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,8 +1279,8 @@
       <c r="H5" s="3">
         <v>0.37</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.68</v>
+      <c r="I5" s="4">
+        <v>0.68179999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1282,8 +1336,8 @@
       <c r="H7" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.71</v>
+      <c r="I7" s="4">
+        <v>0.70589999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1498,8 +1552,8 @@
       <c r="H19" s="3">
         <v>0.34</v>
       </c>
-      <c r="I19" s="5">
-        <v>0.03</v>
+      <c r="I19" s="4">
+        <v>3.0300000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,8 +1609,8 @@
       <c r="H21" s="3">
         <v>0.16</v>
       </c>
-      <c r="I21" s="5">
-        <v>-0.06</v>
+      <c r="I21" s="4">
+        <v>-5.8799999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1700,7 +1754,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H21"/>
+      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,8 +1844,8 @@
       <c r="H5" s="3">
         <v>0.43</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.23</v>
+      <c r="I5" s="4">
+        <v>0.2286</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,7 +1902,7 @@
         <v>0.42</v>
       </c>
       <c r="I7" s="4">
-        <v>0.13500000000000001</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,8 +1951,8 @@
         <v>6.306</v>
       </c>
       <c r="H10" s="2" cm="1">
-        <f t="array" ref="H10:H13">ROUND(G18:G21,2)</f>
-        <v>0.42</v>
+        <f t="array" ref="H10:H13">ROUND(G10:G13,2)</f>
+        <v>6.31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1925,7 +1979,7 @@
         <v>6.1100000000000012</v>
       </c>
       <c r="H11" s="2">
-        <v>0.41</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1952,7 +2006,7 @@
         <v>4.516</v>
       </c>
       <c r="H12" s="2">
-        <v>0.36</v>
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,7 +2033,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="H13" s="2">
-        <v>0.36</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2063,8 +2117,8 @@
       <c r="H19" s="3">
         <v>0.41</v>
       </c>
-      <c r="I19" s="5">
-        <v>-0.02</v>
+      <c r="I19" s="4">
+        <v>-2.3800000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,7 +2319,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H21"/>
+      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,8 +2411,8 @@
       <c r="H5" s="3">
         <v>0.61</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.17</v>
+      <c r="I5" s="4">
+        <v>0.1731</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,8 +2468,8 @@
       <c r="H7" s="3">
         <v>0.76</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.1</v>
+      <c r="I7" s="4">
+        <v>0.10150000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2832,7 +2886,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H21"/>
+      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,8 +2979,8 @@
       <c r="H5" s="3">
         <v>0.51</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.19</v>
+      <c r="I5" s="4">
+        <v>0.18609999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2983,7 +3037,7 @@
         <v>0.65</v>
       </c>
       <c r="I7" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,7 +3310,7 @@
         <v>0.63</v>
       </c>
       <c r="I21" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>1.61E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3400,7 +3454,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H21"/>
+      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,8 +3545,8 @@
       <c r="H5" s="3">
         <v>0.6</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.13</v>
+      <c r="I5" s="4">
+        <v>0.1321</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,8 +3602,8 @@
       <c r="H7" s="3">
         <v>0.44</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.16</v>
+      <c r="I7" s="4">
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,8 +3818,8 @@
       <c r="H19" s="3">
         <v>0.43</v>
       </c>
-      <c r="I19" s="5">
-        <v>-0.04</v>
+      <c r="I19" s="4">
+        <v>-4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3822,7 +3876,7 @@
         <v>0.4</v>
       </c>
       <c r="I21" s="4">
-        <v>-2.5000000000000001E-2</v>
+        <v>-2.4400000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,7 +4020,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B46"/>
+      <selection activeCell="M24" activeCellId="1" sqref="M10:M13 M24:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,7 +4156,7 @@
         <v>0.38</v>
       </c>
       <c r="N5" s="4">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4188,8 +4242,8 @@
       <c r="M7" s="3">
         <v>0.51</v>
       </c>
-      <c r="N7" s="5">
-        <v>0.24</v>
+      <c r="N7" s="4">
+        <v>0.24390000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4611,8 +4665,8 @@
       <c r="M21" s="3">
         <v>0.41</v>
       </c>
-      <c r="N21" s="5">
-        <v>-0.02</v>
+      <c r="N21" s="4">
+        <v>-2.3900000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4829,55 +4883,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAE8D16-5900-47C2-B296-90AA14D5BC74}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="14">
+        <f>AVERAGE(I6,I9)</f>
+        <v>0.22264285714285714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4902,11 +4960,8 @@
       <c r="H4" s="7">
         <v>0.35</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4932,205 +4987,805 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.2286</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.1731</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.1321</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="I6" s="14">
+        <f>AVERAGE(B6:H6)</f>
+        <v>0.22464285714285712</v>
+      </c>
+      <c r="J6" s="20">
+        <f>ROUND(STDEV(B6:H6),2)</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B7" s="7">
         <v>0.52</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>0.17</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>0.37</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>0.69</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>0.61</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>0.38</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="7">
         <v>0.41</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>0.1346</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.1351</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="I9" s="14">
+        <f>AVERAGE(B9:H9)</f>
+        <v>0.22064285714285714</v>
+      </c>
+      <c r="J9" s="20">
+        <f>ROUND(STDEV(B9:H9),2)</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="15"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="15"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16">
+        <f>AVERAGE(I17,I20)</f>
+        <v>-1.0635714285714287E-2</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-2.3800000000000002E-2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f>AVERAGE(B17:H17)</f>
+        <v>-8.2714285714285719E-3</v>
+      </c>
+      <c r="J17" s="19">
+        <f>ROUND(STDEV(A17:H17),2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B19" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>-5.8799999999999998E-2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-2.4400000000000002E-2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>-2.3900000000000001E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <f>AVERAGE(B20:H20)</f>
+        <v>-1.3000000000000001E-2</v>
+      </c>
+      <c r="J20" s="19">
+        <f>ROUND(STDEV(B20:H20),2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="14">
+        <f>AVERAGE(I29,I32)</f>
+        <v>-4.2642857142857135E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6.22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6.02</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6.31</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F27" s="7">
+        <v>6.91</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6.69</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6.12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6.11</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F28" s="7">
+        <v>6.74</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3.83</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>-3.1699999999999999E-2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>-4.8899999999999999E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>-3.7699999999999997E-2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <f>AVERAGE(B29:H29)</f>
+        <v>-5.1714285714285707E-3</v>
+      </c>
+      <c r="J29" s="20">
+        <f>ROUND(STDEV(B29:H29),2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E30" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="F30" s="7">
+        <v>20.54</v>
+      </c>
+      <c r="G30" s="7">
+        <v>9.76</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6.66</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4.34</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5.56</v>
+      </c>
+      <c r="F31" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="G31" s="7">
+        <v>9.76</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6.56</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F32" s="8">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="I32" s="8">
+        <f>AVERAGE(B32:H32)</f>
+        <v>-3.3571428571428563E-3</v>
+      </c>
+      <c r="J32" s="20">
+        <f>ROUND(STDEV(B32:H32),2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B35" s="18">
+        <f>AVERAGE(I40,I43)</f>
+        <v>1.4507142857142857E-2</v>
+      </c>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7">
+        <v>6.27</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6.32</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="F38" s="7">
+        <v>7.46</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5.09</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B39" s="7">
+        <v>6.58</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5.49</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6.58</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5.46</v>
+      </c>
+      <c r="F39" s="7">
+        <v>7.57</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4.09</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="C40" s="10">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="D40" s="10">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G40" s="10">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="H40" s="10">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="I40" s="10">
+        <f>AVERAGE(B40:H40)</f>
+        <v>2.5757142857142857E-2</v>
+      </c>
+      <c r="J40" s="19">
+        <f>ROUND(STDEV(B40:H40),2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B41" s="7">
+        <v>4.32</v>
+      </c>
+      <c r="C41" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4.41</v>
+      </c>
+      <c r="E41" s="7">
+        <v>5.04</v>
+      </c>
+      <c r="F41" s="7">
+        <v>20.83</v>
+      </c>
+      <c r="G41" s="7">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6.58</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.41</v>
+      <c r="B42" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E42" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="F42" s="7">
+        <v>21.23</v>
+      </c>
+      <c r="G42" s="7">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H42" s="7">
+        <v>6.37</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D43" s="10">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G43" s="10">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+      <c r="H43" s="10">
+        <v>-3.1899999999999998E-2</v>
+      </c>
+      <c r="I43" s="10">
+        <f>AVERAGE(B43:H43)</f>
+        <v>3.2571428571428565E-3</v>
+      </c>
+      <c r="J43" s="19">
+        <f>ROUND(STDEV(B43:H43),2)</f>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/results/Testing_Results.xlsx
+++ b/results/Testing_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621FC3FE-E500-4B80-827E-23CE077D13C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB3BEC-CB63-4780-B0C2-77EE5A8B86C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="7" xr2:uid="{A56F28F5-47F8-49C1-97CE-B398F9CE5D83}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="40">
   <si>
     <t>N=5</t>
   </si>
@@ -142,13 +142,89 @@
     <t>ECON</t>
   </si>
   <si>
-    <t>Average Gap (higher is better, 0&lt;=G&lt;=1)</t>
+    <t>s/it</t>
   </si>
   <si>
-    <t>Average Execution Times per Iteration (lower is better)</t>
+    <t>Dev. Std.</t>
   </si>
   <si>
-    <t>s/it</t>
+    <t>Difference</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average Gap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (higher is better, 0&lt;=G&lt;=1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average Execution Times per Iteration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (lower is better)</t>
+    </r>
+  </si>
+  <si>
+    <t>B=1</t>
+  </si>
+  <si>
+    <t>B=0</t>
+  </si>
+  <si>
+    <t>B=5</t>
+  </si>
+  <si>
+    <t>ECON B=1</t>
+  </si>
+  <si>
+    <t>ECON B=0</t>
+  </si>
+  <si>
+    <t>ECON B=5</t>
+  </si>
+  <si>
+    <t>ECON B=10</t>
+  </si>
+  <si>
+    <t>B=10</t>
+  </si>
+  <si>
+    <t>Good Prior</t>
+  </si>
+  <si>
+    <t>Bad Prior</t>
   </si>
 </sst>
 </file>
@@ -206,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -238,11 +314,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -284,14 +406,62 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -611,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2ED3D-7AFB-48BA-B2CB-2B77E946B044}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L4" sqref="L4:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,17 +795,17 @@
     <col min="5" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -652,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -679,8 +849,16 @@
         <f>ROUNDUP(G4,2)</f>
         <v>0.47000000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>1.1577351235301819E-2</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4:L7">ROUND(K4:K7,2)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +888,15 @@
       <c r="I5" s="4">
         <v>8.5099999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>_xlfn.STDEV.S(B5:F5)</f>
+        <v>3.4843262068504403E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -738,8 +923,15 @@
         <f t="array" ref="H6:H7">ROUND(G6:G7,2)</f>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>_xlfn.STDEV.S(B6:F6)</f>
+        <v>6.120067891250109E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -768,13 +960,20 @@
       <c r="I7" s="4">
         <v>0.1346</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>_xlfn.STDEV.S(B7:F7)</f>
+        <v>3.2500204870313305E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -791,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -819,7 +1018,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -847,7 +1046,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -874,7 +1073,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -902,17 +1101,17 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -929,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -956,8 +1155,16 @@
         <f t="array" ref="H18:H21">ROUND(G18:G21,2)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>_xlfn.STDEV.S(B18:F18)</f>
+        <v>1.091095159313671E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L21">ROUND(K18:K21,2)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -986,8 +1193,15 @@
       <c r="I19" s="5">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>_xlfn.STDEV.S(B19:F19)</f>
+        <v>1.834205315163381E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1013,8 +1227,15 @@
       <c r="H20" s="3">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B20:F20)</f>
+        <v>1.4106267778718554E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1043,13 +1264,20 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>_xlfn.STDEV.S(B21:F21)</f>
+        <v>1.0886531958257312E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1322,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1350,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1377,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1186,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B6AA65-686E-4922-B645-E6B475B8D4E6}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
+      <selection activeCell="L4" sqref="L4:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,17 +1426,17 @@
     <col min="2" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1252,8 +1480,16 @@
         <f t="array" ref="H4:H7">ROUND(G4:G7,2)</f>
         <v>0.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>4.2533260227391109E-2</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4:L7">ROUND(K4:K7,2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1282,8 +1518,15 @@
       <c r="I5" s="4">
         <v>0.68179999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>_xlfn.STDEV.S(B5:F5)</f>
+        <v>6.031347588427026E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1309,8 +1552,15 @@
       <c r="H6" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>_xlfn.STDEV.S(B6:F6)</f>
+        <v>5.0294069444236665E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1339,13 +1589,20 @@
       <c r="I7" s="4">
         <v>0.70589999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>_xlfn.STDEV.S(B7:F7)</f>
+        <v>5.3331983491677122E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1647,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +1674,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1701,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1471,17 +1728,17 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1525,8 +1782,16 @@
         <f t="array" ref="H18:H21">ROUND(G18:G21,2)</f>
         <v>0.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>_xlfn.STDEV.S(B18:F18)</f>
+        <v>0.11812500662654532</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L21">ROUND(K18:K21,2)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1555,8 +1820,15 @@
       <c r="I19" s="4">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>_xlfn.STDEV.S(B19:F19)</f>
+        <v>0.12676177931141555</v>
+      </c>
+      <c r="L19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1582,8 +1854,15 @@
       <c r="H20" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B20:F20)</f>
+        <v>3.1111098171496519E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1612,13 +1891,20 @@
       <c r="I21" s="4">
         <v>-5.8799999999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>_xlfn.STDEV.S(B21:F21)</f>
+        <v>3.4051125451060302E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1949,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1976,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +2003,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1751,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B081E50E-ADFE-4D28-BEA5-0BE557DDD9EA}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
+      <selection activeCell="L4" sqref="L4:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,17 +2049,17 @@
     <col min="2" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1817,8 +2103,16 @@
         <f t="array" ref="H4:H7">ROUND(G4:G7,2)</f>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>3.5063496849963051E-2</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4:L7">ROUND(K4:K7,2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1847,8 +2141,15 @@
       <c r="I5" s="4">
         <v>0.2286</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>_xlfn.STDEV.S(B5:F5)</f>
+        <v>4.6902554760971035E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1874,8 +2175,15 @@
       <c r="H6" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>_xlfn.STDEV.S(B6:F6)</f>
+        <v>6.2121592213690312E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1904,13 +2212,20 @@
       <c r="I7" s="4">
         <v>0.1351</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>_xlfn.STDEV.S(B7:F7)</f>
+        <v>5.6350176899924095E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1927,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +2270,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1982,7 +2297,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -2009,7 +2324,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2036,17 +2351,17 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2090,8 +2405,16 @@
         <f t="array" ref="H18:H21">ROUND(G18:G21,2)</f>
         <v>0.42</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>_xlfn.STDEV.S(B18:F18)</f>
+        <v>4.0554310841213734E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L21">ROUND(K18:K21,2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2120,8 +2443,15 @@
       <c r="I19" s="4">
         <v>-2.3800000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>_xlfn.STDEV.S(B19:F19)</f>
+        <v>4.5978351652513669E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2147,8 +2477,15 @@
       <c r="H20" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B20:F20)</f>
+        <v>3.2495373911380104E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2177,13 +2514,20 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>_xlfn.STDEV.S(B21:F21)</f>
+        <v>3.2301337718662039E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2228,7 +2572,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2599,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -2282,7 +2626,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -2316,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F2606A-5C20-45CE-B914-2E780A1389FD}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,17 +2674,17 @@
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2357,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2384,8 +2728,16 @@
         <f t="array" ref="H4:H7">ROUND(G4:G7,2)</f>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>6.3231148949064397E-2</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4:L7">ROUND(K4:K7,2)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2766,15 @@
       <c r="I5" s="4">
         <v>0.1731</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>_xlfn.STDEV.S(B5:F5)</f>
+        <v>5.4227278375371883E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2441,8 +2800,15 @@
       <c r="H6" s="3">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>_xlfn.STDEV.S(B6:F6)</f>
+        <v>9.0060534397224307E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2471,13 +2837,20 @@
       <c r="I7" s="4">
         <v>0.10150000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>_xlfn.STDEV.S(B7:F7)</f>
+        <v>3.8367152678732544E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2522,7 +2895,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2549,7 +2922,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2949,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2603,17 +2976,17 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2630,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2657,8 +3030,16 @@
         <f t="array" ref="H18:H21">ROUND(G18:G21,2)</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>_xlfn.STDEV.S(B18:F18)</f>
+        <v>1.1094575262756423E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L21">ROUND(K18:K21,2)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2687,8 +3068,15 @@
       <c r="I19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>_xlfn.STDEV.S(B19:F19)</f>
+        <v>7.6551501551862192E-3</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2714,8 +3102,15 @@
       <c r="H20" s="3">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B20:F20)</f>
+        <v>5.5065469944945475E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2744,13 +3139,20 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>_xlfn.STDEV.S(B21:F21)</f>
+        <v>5.8548109107813211E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2767,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +3197,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +3224,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -2849,7 +3251,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -2883,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E26B2-FF43-4C8B-AB99-18F0BC90CD83}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,17 +3300,17 @@
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2924,8 +3326,11 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2952,8 +3357,16 @@
         <f t="array" ref="H4:H7">ROUND(G4:G7,2)</f>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>2.4210206317257069E-2</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4:L7">ROUND(K4:K7,2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3395,15 @@
       <c r="I5" s="4">
         <v>0.18609999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>_xlfn.STDEV.S(B5:F5)</f>
+        <v>6.4553487432912227E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3009,8 +3429,15 @@
       <c r="H6" s="3">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>_xlfn.STDEV.S(B6:F6)</f>
+        <v>1.7659893967643132E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3039,13 +3466,20 @@
       <c r="I7" s="4">
         <v>6.5600000000000006E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>_xlfn.STDEV.S(B7:F7)</f>
+        <v>1.8953488187827085E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3062,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3090,7 +3524,7 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3117,7 +3551,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -3144,7 +3578,7 @@
         <v>20.54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3171,17 +3605,17 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3198,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -3225,8 +3659,16 @@
         <f t="array" ref="H18:H21">ROUND(G18:G21,2)</f>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>_xlfn.STDEV.S(B18:F18)</f>
+        <v>3.1112055477650606E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L21">ROUND(K18:K21,2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -3255,8 +3697,15 @@
       <c r="I19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>_xlfn.STDEV.S(B19:F19)</f>
+        <v>3.7291320658574566E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -3282,8 +3731,15 @@
       <c r="H20" s="3">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B20:F20)</f>
+        <v>2.0495898657673053E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3312,13 +3768,20 @@
       <c r="I21" s="4">
         <v>1.61E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>_xlfn.STDEV.S(B21:F21)</f>
+        <v>2.1633338532118386E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3335,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -3363,7 +3826,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3853,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3417,7 +3880,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -3451,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CB569D-9134-43EA-A702-E7B826D39648}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" activeCellId="1" sqref="H10:H13 H24:H27"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,17 +3927,17 @@
     <col min="3" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3490,8 +3953,11 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3518,8 +3984,16 @@
         <f t="array" ref="H4:H7">ROUND(G4:G7,2)</f>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>0.14769973621938456</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4:L7">ROUND(K4:K7,2)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +4022,15 @@
       <c r="I5" s="4">
         <v>0.1321</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>_xlfn.STDEV.S(B5:F5)</f>
+        <v>0.16713922098675585</v>
+      </c>
+      <c r="L5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3575,8 +4056,15 @@
       <c r="H6" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>_xlfn.STDEV.S(B6:F6)</f>
+        <v>7.3836317689916414E-2</v>
+      </c>
+      <c r="L6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3605,13 +4093,20 @@
       <c r="I7" s="4">
         <v>0.15790000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>_xlfn.STDEV.S(B7:F7)</f>
+        <v>7.777336034998901E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3656,7 +4151,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3683,7 +4178,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +4205,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3737,17 +4232,17 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -3791,8 +4286,16 @@
         <f t="array" ref="H18:H21">ROUND(G18:G21,2)</f>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>_xlfn.STDEV.S(B18:F18)</f>
+        <v>0.12040274194370393</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L21">ROUND(K18:K21,2)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -3821,8 +4324,15 @@
       <c r="I19" s="4">
         <v>-4.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>_xlfn.STDEV.S(B19:F19)</f>
+        <v>0.11600288905788181</v>
+      </c>
+      <c r="L19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -3848,8 +4358,15 @@
       <c r="H20" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>_xlfn.STDEV.S(B20:F20)</f>
+        <v>0.12154264278746732</v>
+      </c>
+      <c r="L20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3878,13 +4395,20 @@
       <c r="I21" s="4">
         <v>-2.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>_xlfn.STDEV.S(B21:F21)</f>
+        <v>0.11331635871074723</v>
+      </c>
+      <c r="L21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -3929,7 +4453,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -3956,7 +4480,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3983,7 +4507,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -4017,1346 +4541,3233 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022B250C-2F08-41BC-9BD9-EDA2777421C7}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="B1:AG95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" activeCellId="1" sqref="M10:M13 M24:M27"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="P1"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="P2"/>
+      <c r="Q2" s="13"/>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="P3"/>
+      <c r="Q3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="7">
         <v>0.351964378825456</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="7">
         <v>0.33791954960260701</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="7">
         <v>0.39576713060124602</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="7">
         <v>0.35257566932263701</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="7">
         <v>0.32274524293878198</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="7">
         <v>0.34024423708337997</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="7">
         <v>0.36232920954565301</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="7">
         <v>0.31856206003731802</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="7">
         <v>0.38534213378535198</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="7">
         <v>0.35402566685393699</v>
       </c>
-      <c r="L4">
-        <f>AVERAGE(B4:K4)</f>
+      <c r="M4" s="13">
+        <f>AVERAGE(C4:L4)</f>
         <v>0.35214752785963682</v>
       </c>
-      <c r="M4" s="3" cm="1">
-        <f t="array" ref="M4:M7">ROUND(L4:L7,2)</f>
+      <c r="N4" s="35" cm="1">
+        <f t="array" ref="N4:N7">ROUND(M4:M7,2)</f>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="O4" s="13"/>
+      <c r="Q4" s="13">
+        <f>ROUND(STDEV(C4:L4),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="13" t="e">
+        <f>AVERAGE(V4:AE4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="35" t="e" cm="1">
+        <f t="array" ref="AG4:AG7">ROUND(AF4:AF7,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="7">
         <v>0.38561524446440298</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="7">
         <v>0.37298261098542901</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="7">
         <v>0.39759839952924098</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="7">
         <v>0.41745662000128603</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="7">
         <v>0.370923761644329</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="7">
         <v>0.361629123621169</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="7">
         <v>0.40118235252807999</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="7">
         <v>0.342407552293165</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="7">
         <v>0.38749159788313797</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="7">
         <v>0.37446108383354598</v>
       </c>
-      <c r="L5">
-        <f>AVERAGE(B5:K5)</f>
+      <c r="M5" s="13">
+        <f>AVERAGE(C5:L5)</f>
         <v>0.38117483467837859</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="35">
         <v>0.38</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="36">
         <v>8.5699999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="Q5" s="13">
+        <f>ROUND(STDEV(C5:L5),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="13" t="e">
+        <f>AVERAGE(V5:AE5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="7">
         <v>0.38932991841058001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="7">
         <v>0.42183507621007499</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="7">
         <v>0.40766128415161501</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="7">
         <v>0.400101224811372</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="7">
         <v>0.38169817745991402</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="7">
         <v>0.43276177271411898</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="7">
         <v>0.41764018566731298</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="7">
         <v>0.382597229466695</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="7">
         <v>0.46705304170205902</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="7">
         <v>0.41289764764251502</v>
       </c>
-      <c r="L6">
-        <f>AVERAGE(B6:K6)</f>
+      <c r="M6" s="13">
+        <f>AVERAGE(C6:L6)</f>
         <v>0.41135755582362571</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="35">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="O6" s="13"/>
+      <c r="Q6" s="13">
+        <f>ROUND(STDEV(C6:L6),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="13" t="e">
+        <f>AVERAGE(V6:AE6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="7">
         <v>0.43947702690787999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="7">
         <v>0.45520803856751202</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="7">
         <v>0.47278039781623998</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="7">
         <v>0.46060745927093999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="7">
         <v>0.53203543472284098</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="7">
         <v>0.69110673667796496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="7">
         <v>0.42825179706044703</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="7">
         <v>0.51520010803305505</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="7">
         <v>0.58960467684085405</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="7">
         <v>0.54503461030983102</v>
       </c>
-      <c r="L7">
-        <f>AVERAGE(B7:K7)</f>
+      <c r="M7" s="13">
+        <f>AVERAGE(C7:L7)</f>
         <v>0.51293062862075645</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="35">
         <v>0.51</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="36">
         <v>0.24390000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="Q7" s="13">
+        <f>ROUND(STDEV(C7:L7),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="13" t="e">
+        <f>AVERAGE(V7:AE7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="P8"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="P9"/>
+      <c r="Q9" s="13"/>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="7">
         <v>4.3899999999999997</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="7">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="7">
         <v>4.67</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="7">
         <v>4.3099999999999996</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="7">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="7">
         <v>4.72</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="7">
         <v>5.46</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="7">
         <v>5.46</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="7">
         <v>5.35</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="7">
         <v>5.17</v>
       </c>
-      <c r="L10">
-        <f>AVERAGE(B10:K10)</f>
+      <c r="M10" s="13">
+        <f>AVERAGE(C10:L10)</f>
         <v>4.8439999999999994</v>
       </c>
-      <c r="M10" s="2" cm="1">
-        <f t="array" ref="M10:M13">ROUND(L10:L13,2)</f>
+      <c r="N10" s="7" cm="1">
+        <f t="array" ref="N10:N13">ROUND(M10:M13,2)</f>
         <v>4.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="O10" s="13"/>
+      <c r="Q10" s="13">
+        <f>ROUND(STDEV(C10:L10),2)</f>
+        <v>0.47</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="7">
         <v>4.33</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="7">
         <v>4.83</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="7">
         <v>4.91</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="7">
         <v>4.47</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="7">
         <v>4.43</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="7">
         <v>4.59</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="7">
         <v>5.52</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="7">
         <v>5.55</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="7">
         <v>5.07</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="7">
         <v>5.43</v>
       </c>
-      <c r="L11">
-        <f>AVERAGE(B11:K11)</f>
+      <c r="M11" s="13">
+        <f>AVERAGE(C11:L11)</f>
         <v>4.9129999999999994</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="7">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="O11" s="13"/>
+      <c r="Q11" s="13">
+        <f>ROUND(STDEV(C11:L11),2)</f>
+        <v>0.47</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="13" t="e">
+        <f>AVERAGE(V11:AE11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="35" t="e" cm="1">
+        <f t="array" ref="AG11:AG14">ROUND(AF11:AF14,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="7">
         <v>6.89</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="7">
         <v>6.7</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="7">
         <v>7.34</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="7">
         <v>7.68</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="7">
         <v>6.77</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="7">
         <v>6.05</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="7">
         <v>6.78</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="7">
         <v>6.13</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="7">
         <v>6.1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="7">
         <v>6.13</v>
       </c>
-      <c r="L12">
-        <f>AVERAGE(B12:K12)</f>
+      <c r="M12" s="13">
+        <f>AVERAGE(C12:L12)</f>
         <v>6.6569999999999991</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="7">
         <v>6.66</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="O12" s="13"/>
+      <c r="Q12" s="13">
+        <f>ROUND(STDEV(C12:L12),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="13" t="e">
+        <f>AVERAGE(V12:AE12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="7">
         <v>7.08</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="7">
         <v>6.1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="7">
         <v>6.98</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="7">
         <v>6.72</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="7">
         <v>6.58</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="7">
         <v>6.87</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="7">
         <v>6.41</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="7">
         <v>5.95</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="7">
         <v>7.14</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="7">
         <v>5.77</v>
       </c>
-      <c r="L13">
-        <f>AVERAGE(B13:K13)</f>
+      <c r="M13" s="13">
+        <f>AVERAGE(C13:L13)</f>
         <v>6.56</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="7">
         <v>6.56</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="O13" s="13"/>
+      <c r="Q13" s="13">
+        <f>ROUND(STDEV(C13:L13),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="13" t="e">
+        <f>AVERAGE(V13:AE13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P14"/>
+      <c r="Q14" s="13"/>
+      <c r="U14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="13" t="e">
+        <f>AVERAGE(V14:AE14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="P15"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="P16"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="P17"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="7">
         <v>0.39151274821535298</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="7">
         <v>0.365787674917678</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="7">
         <v>0.359767984641226</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="7">
         <v>0.34836324910037603</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="7">
         <v>0.35884930507815999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="7">
         <v>0.338166289919478</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="7">
         <v>0.36442396308726699</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="7">
         <v>0.34148193295517898</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="7">
         <v>0.36358904904598099</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="7">
         <v>0.31011812980307002</v>
       </c>
-      <c r="L18">
-        <f>AVERAGE(B18:K18)</f>
+      <c r="M18" s="13">
+        <f>AVERAGE(C18:L18)</f>
         <v>0.35420603267637679</v>
       </c>
-      <c r="M18" s="3" cm="1">
-        <f t="array" ref="M18:M21">ROUND(L18:L21,2)</f>
+      <c r="N18" s="35" cm="1">
+        <f t="array" ref="N18:N21">ROUND(M18:M21,2)</f>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="O18" s="13"/>
+      <c r="Q18" s="13">
+        <f>ROUND(STDEV(C18:L18),2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="7">
         <v>0.34921837356270402</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="7">
         <v>0.38599234741120803</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="7">
         <v>0.35184218612458401</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="7">
         <v>0.34791404281148502</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="7">
         <v>0.35481610772998301</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="7">
         <v>0.32080056854847899</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="7">
         <v>0.35891383792098402</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="7">
         <v>0.34453636340157601</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="7">
         <v>0.37881710842583399</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="7">
         <v>0.31790731585822601</v>
       </c>
-      <c r="L19">
-        <f>AVERAGE(B19:K19)</f>
+      <c r="M19" s="13">
+        <f>AVERAGE(C19:L19)</f>
         <v>0.35107582517950631</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="35">
         <v>0.35</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="Q19" s="13">
+        <f>ROUND(STDEV(C19:L19),2)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="7">
         <v>0.38907406371098102</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="7">
         <v>0.42213869443976099</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="7">
         <v>0.41600975532019602</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="7">
         <v>0.40640082200698102</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="7">
         <v>0.40733047397304301</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="7">
         <v>0.46877869323733801</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="7">
         <v>0.41148245352145602</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="7">
         <v>0.452183576054206</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="7">
         <v>0.414566564421602</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="7">
         <v>0.367849078060831</v>
       </c>
-      <c r="L20">
-        <f>AVERAGE(B20:K20)</f>
+      <c r="M20" s="13">
+        <f>AVERAGE(C20:L20)</f>
         <v>0.41558141747463956</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="35">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="O20" s="13"/>
+      <c r="Q20" s="13">
+        <f>ROUND(STDEV(C20:L20),2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="7">
         <v>0.38236833791304298</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="7">
         <v>0.42012811911355802</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="7">
         <v>0.41511313757416202</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="7">
         <v>0.39994262113565898</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="7">
         <v>0.40502990178070403</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="7">
         <v>0.453717347827156</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="7">
         <v>0.41882266663184398</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="7">
         <v>0.451068752215531</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="7">
         <v>0.41262541053666502</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="7">
         <v>0.36991001778700799</v>
       </c>
-      <c r="L21">
-        <f>AVERAGE(B21:K21)</f>
+      <c r="M21" s="13">
+        <f>AVERAGE(C21:L21)</f>
         <v>0.41287263125153306</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="35">
         <v>0.41</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="36">
         <v>-2.3900000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="Q21" s="13">
+        <f>ROUND(STDEV(C21:L21),2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="P22"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="P23"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="7">
         <v>5.17</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="7">
         <v>5.28</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="7">
         <v>5.05</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="7">
         <v>4.78</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="7">
         <v>5.21</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="7">
         <v>5.3</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="7">
         <v>4.9800000000000004</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="7">
         <v>5.1100000000000003</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="7">
         <v>4.8600000000000003</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="7">
         <v>5.13</v>
       </c>
-      <c r="L24">
-        <f>AVERAGE(B24:K24)</f>
+      <c r="M24" s="13">
+        <f>AVERAGE(C24:L24)</f>
         <v>5.0870000000000006</v>
       </c>
-      <c r="M24" s="2" cm="1">
-        <f t="array" ref="M24:M27">ROUND(L24:L27,2)</f>
+      <c r="N24" s="7" cm="1">
+        <f t="array" ref="N24:N27">ROUND(M24:M27,2)</f>
         <v>5.09</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="O24" s="13"/>
+      <c r="Q24" s="13">
+        <f>ROUND(STDEV(C24:L24),2)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="7">
         <v>5.22</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="7">
         <v>5.3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="7">
         <v>5.07</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="7">
         <v>4.76</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="7">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="7">
         <v>5.08</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="7">
         <v>5.2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="7">
         <v>5.09</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="7">
         <v>5</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="7">
         <v>5.0199999999999996</v>
       </c>
-      <c r="L25">
-        <f>AVERAGE(B25:K25)</f>
+      <c r="M25" s="13">
+        <f>AVERAGE(C25:L25)</f>
         <v>5.0599999999999996</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="7">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="O25" s="13"/>
+      <c r="Q25" s="13">
+        <f>ROUND(STDEV(C25:L25),2)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="7">
         <v>6.45</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="7">
         <v>6.14</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="7">
         <v>6.09</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="7">
         <v>6.66</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="7">
         <v>6.77</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="7">
         <v>7.39</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="7">
         <v>6.61</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="7">
         <v>6.32</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="7">
         <v>6.89</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="7">
         <v>6.5</v>
       </c>
-      <c r="L26">
-        <f>AVERAGE(B26:K26)</f>
+      <c r="M26" s="13">
+        <f>AVERAGE(C26:L26)</f>
         <v>6.581999999999999</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="7">
         <v>6.58</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="O26" s="13"/>
+      <c r="Q26" s="13">
+        <f>ROUND(STDEV(C26:L26),2)</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="7">
         <v>6.57</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="7">
         <v>6.3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="7">
         <v>6.27</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="7">
         <v>6.47</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="7">
         <v>6.46</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="7">
         <v>6.52</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="7">
         <v>6.18</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="7">
         <v>6.33</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="7">
         <v>6.31</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="7">
         <v>6.25</v>
       </c>
-      <c r="L27">
-        <f>AVERAGE(B27:K27)</f>
+      <c r="M27" s="13">
+        <f>AVERAGE(C27:L27)</f>
         <v>6.3660000000000005</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="7">
         <v>6.37</v>
       </c>
+      <c r="O27" s="13"/>
+      <c r="Q27" s="13">
+        <f>ROUND(STDEV(C27:L27),2)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P28"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P29"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P30"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P31"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P33"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="30"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="H37" s="30">
+        <f>ROUND(AVERAGE(C37:G37),2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I37" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C37:G37),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H38" s="30">
+        <f>ROUND(AVERAGE(C38:G38),2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I38" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C38:G38),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="30"/>
+    </row>
+    <row r="40" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="30"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="30">
+        <f>ROUND(AVERAGE(C43:G43),2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="I43" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C43:G43),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="H44" s="30">
+        <f>ROUND(AVERAGE(C44:G44),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I44" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C44:G44),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="30"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="30"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="30"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="30"/>
+    </row>
+    <row r="49" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P49"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P50"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H52" s="13">
+        <f>ROUND(AVERAGE(C52:G52),2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I52" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C52:G52),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="P52"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="H53" s="13">
+        <f>ROUND(AVERAGE(C53:G53),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="I53" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C53:G53),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="29"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="29"/>
+    </row>
+    <row r="55" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="29"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="29"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="29"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H58" s="30">
+        <f>ROUND(AVERAGE(C58:G58),2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="I58" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C58:G58),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="29"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="H59" s="30">
+        <f>ROUND(AVERAGE(C59:G59),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I59" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C59:G59),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="29"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="29"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="29"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62"/>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P63"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P64"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="P65"/>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="29"/>
+      <c r="I66" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66"/>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H67" s="13">
+        <f>AVERAGE(C67:G67)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I67" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C67:H67),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P67"/>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="H68" s="13">
+        <f>ROUND(AVERAGE(C68:G68),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="I68" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C68:H68),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="P68"/>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="P69"/>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="P70"/>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="P71"/>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P72"/>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H73" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I73" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C73:H73),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P73"/>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="H74" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="I74" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C74:H74),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P74"/>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P75"/>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P76"/>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="P77"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P78"/>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P79"/>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P80"/>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="29"/>
+      <c r="I81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81"/>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H82" s="13">
+        <f>ROUND(AVERAGE(C82:G82),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I82" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C82:G82),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="P82"/>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="H83" s="13">
+        <f>ROUND(AVERAGE(C83:G83),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I83" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C83:G83),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="P83"/>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="P84"/>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="P85"/>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="P86"/>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="H88" s="30">
+        <f>ROUND(AVERAGE(C88:G88),2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="I88" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C88:G88),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P88"/>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H89" s="30">
+        <f>ROUND(AVERAGE(C89:G89),2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="I89" s="30">
+        <f>ROUND(_xlfn.STDEV.S(C89:G89),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P89"/>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P90"/>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P91"/>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P92"/>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P93"/>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P94"/>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P95"/>
+      <c r="Q95" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAE8D16-5900-47C2-B296-90AA14D5BC74}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="13"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="14">
-        <f>AVERAGE(I6,I9)</f>
+        <f>AVERAGE(P6,P9)</f>
         <v>0.22264285714285714</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="K3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="M3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="30"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>0.47000000000000003</v>
       </c>
       <c r="C4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="7">
         <v>0.22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.35</v>
       </c>
-      <c r="E4" s="7">
+      <c r="G4" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.52</v>
       </c>
-      <c r="F4" s="7">
+      <c r="I4" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J4" s="7">
         <v>0.43</v>
       </c>
-      <c r="G4" s="7">
+      <c r="K4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="7">
         <v>0.53</v>
       </c>
-      <c r="H4" s="7">
+      <c r="M4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="N4" s="7">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="O4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="29"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>0.51</v>
       </c>
       <c r="C5" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="7">
         <v>0.37</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.43</v>
       </c>
-      <c r="E5" s="7">
+      <c r="G5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.61</v>
       </c>
-      <c r="F5" s="7">
+      <c r="I5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="7">
         <v>0.51</v>
       </c>
-      <c r="G5" s="7">
+      <c r="K5" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="L5" s="7">
         <v>0.6</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="N5" s="7">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="8">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="27"/>
+      <c r="D6" s="8">
         <v>0.68179999999999996</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="27"/>
+      <c r="F6" s="8">
         <v>0.2286</v>
       </c>
-      <c r="E6" s="8">
+      <c r="G6" s="27"/>
+      <c r="H6" s="8">
         <v>0.1731</v>
       </c>
-      <c r="F6" s="8">
+      <c r="I6" s="27"/>
+      <c r="J6" s="8">
         <v>0.18609999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="K6" s="27"/>
+      <c r="L6" s="8">
         <v>0.1321</v>
       </c>
-      <c r="H6" s="8">
+      <c r="M6" s="27"/>
+      <c r="N6" s="8">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="I6" s="14">
-        <f>AVERAGE(B6:H6)</f>
+      <c r="O6" s="27"/>
+      <c r="P6" s="14">
+        <f>AVERAGE(B6:N6)</f>
         <v>0.22464285714285712</v>
       </c>
-      <c r="J6" s="20">
-        <f>ROUND(STDEV(B6:H6),2)</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7">
         <v>0.52</v>
       </c>
       <c r="C7" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.37</v>
       </c>
-      <c r="E7" s="7">
+      <c r="G7" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="7">
         <v>0.69</v>
       </c>
-      <c r="F7" s="7">
+      <c r="I7" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="7">
         <v>0.61</v>
       </c>
-      <c r="G7" s="7">
+      <c r="K7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L7" s="7">
         <v>0.38</v>
       </c>
-      <c r="H7" s="7">
+      <c r="M7" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N7" s="7">
         <v>0.41</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="O7" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="U7" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
         <v>0.59</v>
       </c>
       <c r="C8" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.42</v>
       </c>
-      <c r="E8" s="7">
+      <c r="G8" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.76</v>
       </c>
-      <c r="F8" s="7">
+      <c r="I8" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="7">
         <v>0.65</v>
       </c>
-      <c r="G8" s="7">
+      <c r="K8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L8" s="7">
         <v>0.44</v>
       </c>
-      <c r="H8" s="7">
+      <c r="M8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="N8" s="7">
         <v>0.51</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="U8" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="8">
         <v>0.1346</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="27"/>
+      <c r="D9" s="8">
         <v>0.70589999999999997</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="27"/>
+      <c r="F9" s="8">
         <v>0.1351</v>
       </c>
-      <c r="E9" s="8">
+      <c r="G9" s="27"/>
+      <c r="H9" s="8">
         <v>0.10150000000000001</v>
       </c>
-      <c r="F9" s="8">
+      <c r="I9" s="27"/>
+      <c r="J9" s="8">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="K9" s="27"/>
+      <c r="L9" s="8">
         <v>0.15790000000000001</v>
       </c>
-      <c r="H9" s="8">
+      <c r="M9" s="27"/>
+      <c r="N9" s="8">
         <v>0.24390000000000001</v>
       </c>
-      <c r="I9" s="14">
-        <f>AVERAGE(B9:H9)</f>
+      <c r="O9" s="27"/>
+      <c r="P9" s="14">
+        <f>AVERAGE(B9:N9)</f>
         <v>0.22064285714285714</v>
       </c>
-      <c r="J9" s="20">
-        <f>ROUND(STDEV(B9:H9),2)</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="41">
+        <v>0</v>
+      </c>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="U9" s="27"/>
+      <c r="V9" s="42">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="W9" s="39"/>
+      <c r="X9" s="42">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="Y9" s="39"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J10"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="21"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="16">
-        <f>AVERAGE(I17,I20)</f>
+        <f>AVERAGE(P17,P20)</f>
         <v>-1.0635714285714287E-2</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="21"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="21"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="M14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="30"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="7">
         <v>0.5</v>
       </c>
       <c r="C15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="7">
         <v>0.33</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.42</v>
       </c>
-      <c r="E15" s="7">
+      <c r="G15" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H15" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F15" s="7">
+      <c r="I15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J15" s="7">
         <v>0.45</v>
       </c>
-      <c r="G15" s="7">
+      <c r="K15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L15" s="7">
         <v>0.45</v>
       </c>
-      <c r="H15" s="7">
+      <c r="M15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N15" s="7">
         <v>0.35</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="O15" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7">
         <v>0.49</v>
       </c>
       <c r="C16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="7">
         <v>0.34</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.41</v>
       </c>
-      <c r="E16" s="7">
+      <c r="G16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F16" s="7">
+      <c r="I16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="7">
         <v>0.45</v>
       </c>
-      <c r="G16" s="7">
+      <c r="K16" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="L16" s="7">
         <v>0.43</v>
       </c>
-      <c r="H16" s="7">
+      <c r="M16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N16" s="7">
         <v>0.35</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="B17" s="9">
         <v>-0.02</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="27"/>
+      <c r="D17" s="10">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="27"/>
+      <c r="F17" s="10">
         <v>-2.3800000000000002E-2</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-4.4400000000000002E-2</v>
-      </c>
+      <c r="G17" s="27"/>
       <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="16">
-        <f>AVERAGE(B17:H17)</f>
+      <c r="I17" s="27"/>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="10">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="M17" s="27"/>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="16">
+        <f>AVERAGE(B17:N17)</f>
         <v>-8.2714285714285719E-3</v>
       </c>
-      <c r="J17" s="19">
-        <f>ROUND(STDEV(A17:H17),2)</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="Q17" s="30"/>
+      <c r="R17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="7">
         <v>0.56999999999999995</v>
       </c>
       <c r="C18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="7">
         <v>0.17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F18" s="7">
         <v>0.36</v>
       </c>
-      <c r="E18" s="7">
+      <c r="G18" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H18" s="7">
         <v>0.72</v>
       </c>
-      <c r="F18" s="7">
+      <c r="I18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J18" s="7">
         <v>0.62</v>
       </c>
-      <c r="G18" s="7">
+      <c r="K18" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L18" s="7">
         <v>0.41</v>
       </c>
-      <c r="H18" s="7">
+      <c r="M18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N18" s="7">
         <v>0.42</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="O18" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="7">
         <v>0.56999999999999995</v>
       </c>
       <c r="C19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="7">
         <v>0.16</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="7">
         <v>0.36</v>
       </c>
-      <c r="E19" s="7">
+      <c r="G19" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="7">
         <v>0.72</v>
       </c>
-      <c r="F19" s="7">
+      <c r="I19" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J19" s="7">
         <v>0.63</v>
       </c>
-      <c r="G19" s="7">
+      <c r="K19" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L19" s="7">
         <v>0.4</v>
       </c>
-      <c r="H19" s="7">
+      <c r="M19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="N19" s="7">
         <v>0.41</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="B20" s="9">
         <v>0</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="27"/>
+      <c r="D20" s="10">
         <v>-5.8799999999999998E-2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="E20" s="27"/>
+      <c r="F20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="G20" s="27"/>
+      <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="10">
+      <c r="I20" s="27"/>
+      <c r="J20" s="10">
         <v>1.61E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="K20" s="27"/>
+      <c r="L20" s="10">
         <v>-2.4400000000000002E-2</v>
       </c>
-      <c r="H20" s="10">
+      <c r="M20" s="27"/>
+      <c r="N20" s="10">
         <v>-2.3900000000000001E-2</v>
       </c>
-      <c r="I20" s="16">
-        <f>AVERAGE(B20:H20)</f>
+      <c r="O20" s="27"/>
+      <c r="P20" s="16">
+        <f>AVERAGE(B20:N20)</f>
         <v>-1.3000000000000001E-2</v>
       </c>
-      <c r="J20" s="19">
-        <f>ROUND(STDEV(B20:H20),2)</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q20" s="30"/>
+      <c r="R20" s="36">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="S20" s="39"/>
+      <c r="T20" s="36">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="U20" s="39"/>
+      <c r="V20" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="W20" s="39"/>
+      <c r="X20" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="39"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J21"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J23"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="14">
-        <f>AVERAGE(I29,I32)</f>
+        <f ca="1">AVERAGE(I29,I32)</f>
         <v>-4.2642857142857135E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24"/>
+      <c r="Q24" s="20"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J25"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -5378,9 +7789,10 @@
       <c r="H26" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="7">
@@ -5405,12 +7817,12 @@
         <v>4.84</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="22"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="7">
@@ -5435,10 +7847,14 @@
         <v>4.91</v>
       </c>
       <c r="I28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="20"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>7.5600000000000001E-2</v>
       </c>
@@ -5461,16 +7877,13 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="I29" s="8">
-        <f>AVERAGE(B29:H29)</f>
+        <f ca="1">AVERAGE(B29:M29)</f>
         <v>-5.1714285714285707E-3</v>
       </c>
-      <c r="J29" s="20">
-        <f>ROUND(STDEV(B29:H29),2)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="7">
@@ -5495,12 +7908,12 @@
         <v>6.66</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="7">
@@ -5525,11 +7938,14 @@
         <v>6.56</v>
       </c>
       <c r="I31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>-2.47E-2</v>
       </c>
@@ -5552,37 +7968,50 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="I32" s="8">
-        <f>AVERAGE(B32:H32)</f>
+        <f ca="1">AVERAGE(B32:M32)</f>
         <v>-3.3571428571428563E-3</v>
       </c>
-      <c r="J32" s="20">
-        <f>ROUND(STDEV(B32:H32),2)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C33"/>
+      <c r="E33"/>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="G34"/>
+      <c r="I34"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="18">
-        <f>AVERAGE(I40,I43)</f>
+        <f ca="1">AVERAGE(I40,I43)</f>
         <v>1.4507142857142857E-2</v>
       </c>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35"/>
+      <c r="E35"/>
+      <c r="G35"/>
+      <c r="I35"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C36"/>
+      <c r="E36"/>
+      <c r="G36"/>
+      <c r="I36"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>18</v>
       </c>
@@ -5604,10 +8033,11 @@
       <c r="H37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="I37"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="7">
@@ -5632,12 +8062,12 @@
         <v>5.09</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="7">
@@ -5662,11 +8092,14 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="I39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>4.9399999999999999E-2</v>
       </c>
@@ -5689,16 +8122,13 @@
         <v>-5.8999999999999999E-3</v>
       </c>
       <c r="I40" s="10">
-        <f>AVERAGE(B40:H40)</f>
+        <f ca="1">AVERAGE(B40:M40)</f>
         <v>2.5757142857142857E-2</v>
       </c>
-      <c r="J40" s="19">
-        <f>ROUND(STDEV(B40:H40),2)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="7">
@@ -5723,12 +8153,12 @@
         <v>6.58</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="7">
@@ -5753,11 +8183,14 @@
         <v>6.37</v>
       </c>
       <c r="I42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>-1.6199999999999999E-2</v>
       </c>
@@ -5780,15 +8213,13 @@
         <v>-3.1899999999999998E-2</v>
       </c>
       <c r="I43" s="10">
-        <f>AVERAGE(B43:H43)</f>
+        <f ca="1">AVERAGE(B43:M43)</f>
         <v>3.2571428571428565E-3</v>
       </c>
-      <c r="J43" s="19">
-        <f>ROUND(STDEV(B43:H43),2)</f>
-        <v>0.03</v>
-      </c>
+      <c r="Q43" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Testing_Results.xlsx
+++ b/results/Testing_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB3BEC-CB63-4780-B0C2-77EE5A8B86C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763C447B-E1A6-4F59-939B-91C3180ECF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="7" xr2:uid="{A56F28F5-47F8-49C1-97CE-B398F9CE5D83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="7" xr2:uid="{A56F28F5-47F8-49C1-97CE-B398F9CE5D83}"/>
   </bookViews>
   <sheets>
     <sheet name="STAT" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="40">
   <si>
     <t>N=5</t>
   </si>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -378,9 +378,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -461,6 +458,27 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3326,7 +3344,7 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3953,7 +3971,7 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4543,8 +4561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022B250C-2F08-41BC-9BD9-EDA2777421C7}">
   <dimension ref="B1:AG95"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52:I53"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,7 +4571,7 @@
     <col min="2" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4562,14 +4580,14 @@
         <v>7</v>
       </c>
       <c r="P1"/>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="P2"/>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="12"/>
       <c r="U2" t="s">
         <v>38</v>
       </c>
@@ -4606,7 +4624,7 @@
         <v>17</v>
       </c>
       <c r="P3"/>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -4674,16 +4692,16 @@
       <c r="L4" s="7">
         <v>0.35402566685393699</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f>AVERAGE(C4:L4)</f>
         <v>0.35214752785963682</v>
       </c>
-      <c r="N4" s="35" cm="1">
+      <c r="N4" s="34" cm="1">
         <f t="array" ref="N4:N7">ROUND(M4:M7,2)</f>
         <v>0.35</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="Q4" s="13">
+      <c r="O4" s="12"/>
+      <c r="Q4" s="12">
         <f>ROUND(STDEV(C4:L4),2)</f>
         <v>0.02</v>
       </c>
@@ -4700,11 +4718,11 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="13" t="e">
+      <c r="AF4" s="12" t="e">
         <f>AVERAGE(V4:AE4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="35" t="e" cm="1">
+      <c r="AG4" s="34" t="e" cm="1">
         <f t="array" ref="AG4:AG7">ROUND(AF4:AF7,2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4743,17 +4761,17 @@
       <c r="L5" s="7">
         <v>0.37446108383354598</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f>AVERAGE(C5:L5)</f>
         <v>0.38117483467837859</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="34">
         <v>0.38</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <f>ROUND(STDEV(C5:L5),2)</f>
         <v>0.02</v>
       </c>
@@ -4770,11 +4788,11 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="13" t="e">
+      <c r="AF5" s="12" t="e">
         <f>AVERAGE(V5:AE5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG5" s="35" t="e">
+      <c r="AG5" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4812,15 +4830,15 @@
       <c r="L6" s="7">
         <v>0.41289764764251502</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <f>AVERAGE(C6:L6)</f>
         <v>0.41135755582362571</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="34">
         <v>0.41</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="Q6" s="13">
+      <c r="O6" s="12"/>
+      <c r="Q6" s="12">
         <f>ROUND(STDEV(C6:L6),2)</f>
         <v>0.03</v>
       </c>
@@ -4837,11 +4855,11 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="13" t="e">
+      <c r="AF6" s="12" t="e">
         <f>AVERAGE(V6:AE6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" s="35" t="e">
+      <c r="AG6" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4879,17 +4897,17 @@
       <c r="L7" s="7">
         <v>0.54503461030983102</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f>AVERAGE(C7:L7)</f>
         <v>0.51293062862075645</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="34">
         <v>0.51</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="35">
         <v>0.24390000000000001</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <f>ROUND(STDEV(C7:L7),2)</f>
         <v>0.08</v>
       </c>
@@ -4906,11 +4924,11 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="13" t="e">
+      <c r="AF7" s="12" t="e">
         <f>AVERAGE(V7:AE7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="35" t="e">
+      <c r="AG7" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4919,7 +4937,7 @@
         <v>6</v>
       </c>
       <c r="P8"/>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
@@ -4953,7 +4971,7 @@
         <v>17</v>
       </c>
       <c r="P9"/>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="12"/>
       <c r="U9" t="s">
         <v>39</v>
       </c>
@@ -4992,7 +5010,7 @@
       <c r="L10" s="7">
         <v>5.17</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f>AVERAGE(C10:L10)</f>
         <v>4.8439999999999994</v>
       </c>
@@ -5000,8 +5018,8 @@
         <f t="array" ref="N10:N13">ROUND(M10:M13,2)</f>
         <v>4.84</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="Q10" s="13">
+      <c r="O10" s="12"/>
+      <c r="Q10" s="12">
         <f>ROUND(STDEV(C10:L10),2)</f>
         <v>0.47</v>
       </c>
@@ -5070,15 +5088,15 @@
       <c r="L11" s="7">
         <v>5.43</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f>AVERAGE(C11:L11)</f>
         <v>4.9129999999999994</v>
       </c>
       <c r="N11" s="7">
         <v>4.91</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="Q11" s="13">
+      <c r="O11" s="12"/>
+      <c r="Q11" s="12">
         <f>ROUND(STDEV(C11:L11),2)</f>
         <v>0.47</v>
       </c>
@@ -5095,11 +5113,11 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="13" t="e">
+      <c r="AF11" s="12" t="e">
         <f>AVERAGE(V11:AE11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="35" t="e" cm="1">
+      <c r="AG11" s="34" t="e" cm="1">
         <f t="array" ref="AG11:AG14">ROUND(AF11:AF14,2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5138,15 +5156,15 @@
       <c r="L12" s="7">
         <v>6.13</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f>AVERAGE(C12:L12)</f>
         <v>6.6569999999999991</v>
       </c>
       <c r="N12" s="7">
         <v>6.66</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="Q12" s="13">
+      <c r="O12" s="12"/>
+      <c r="Q12" s="12">
         <f>ROUND(STDEV(C12:L12),2)</f>
         <v>0.56000000000000005</v>
       </c>
@@ -5163,11 +5181,11 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="13" t="e">
+      <c r="AF12" s="12" t="e">
         <f>AVERAGE(V12:AE12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="35" t="e">
+      <c r="AG12" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5205,15 +5223,15 @@
       <c r="L13" s="7">
         <v>5.77</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <f>AVERAGE(C13:L13)</f>
         <v>6.56</v>
       </c>
       <c r="N13" s="7">
         <v>6.56</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="Q13" s="13">
+      <c r="O13" s="12"/>
+      <c r="Q13" s="12">
         <f>ROUND(STDEV(C13:L13),2)</f>
         <v>0.49</v>
       </c>
@@ -5230,17 +5248,17 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="13" t="e">
+      <c r="AF13" s="12" t="e">
         <f>AVERAGE(V13:AE13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG13" s="35" t="e">
+      <c r="AG13" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="P14"/>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="12"/>
       <c r="U14" s="2" t="s">
         <v>4</v>
       </c>
@@ -5254,11 +5272,11 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-      <c r="AF14" s="13" t="e">
+      <c r="AF14" s="12" t="e">
         <f>AVERAGE(V14:AE14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="35" t="e">
+      <c r="AG14" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5267,14 +5285,14 @@
         <v>8</v>
       </c>
       <c r="P15"/>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="P16"/>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
@@ -5308,7 +5326,7 @@
         <v>17</v>
       </c>
       <c r="P17"/>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -5344,16 +5362,16 @@
       <c r="L18" s="7">
         <v>0.31011812980307002</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f>AVERAGE(C18:L18)</f>
         <v>0.35420603267637679</v>
       </c>
-      <c r="N18" s="35" cm="1">
+      <c r="N18" s="34" cm="1">
         <f t="array" ref="N18:N21">ROUND(M18:M21,2)</f>
         <v>0.35</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="Q18" s="13">
+      <c r="O18" s="12"/>
+      <c r="Q18" s="12">
         <f>ROUND(STDEV(C18:L18),2)</f>
         <v>0.02</v>
       </c>
@@ -5392,17 +5410,17 @@
       <c r="L19" s="7">
         <v>0.31790731585822601</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <f>AVERAGE(C19:L19)</f>
         <v>0.35107582517950631</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19" s="34">
         <v>0.35</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="36">
         <v>0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <f>ROUND(STDEV(C19:L19),2)</f>
         <v>0.02</v>
       </c>
@@ -5441,15 +5459,15 @@
       <c r="L20" s="7">
         <v>0.367849078060831</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f>AVERAGE(C20:L20)</f>
         <v>0.41558141747463956</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <v>0.42</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="Q20" s="13">
+      <c r="O20" s="12"/>
+      <c r="Q20" s="12">
         <f>ROUND(STDEV(C20:L20),2)</f>
         <v>0.03</v>
       </c>
@@ -5488,17 +5506,17 @@
       <c r="L21" s="7">
         <v>0.36991001778700799</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <f>AVERAGE(C21:L21)</f>
         <v>0.41287263125153306</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="34">
         <v>0.41</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="35">
         <v>-2.3900000000000001E-2</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <f>ROUND(STDEV(C21:L21),2)</f>
         <v>0.03</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="P22"/>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
@@ -5542,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="P23"/>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
@@ -5578,7 +5596,7 @@
       <c r="L24" s="7">
         <v>5.13</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="12">
         <f>AVERAGE(C24:L24)</f>
         <v>5.0870000000000006</v>
       </c>
@@ -5586,8 +5604,8 @@
         <f t="array" ref="N24:N27">ROUND(M24:M27,2)</f>
         <v>5.09</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="Q24" s="13">
+      <c r="O24" s="12"/>
+      <c r="Q24" s="12">
         <f>ROUND(STDEV(C24:L24),2)</f>
         <v>0.17</v>
       </c>
@@ -5626,15 +5644,15 @@
       <c r="L25" s="7">
         <v>5.0199999999999996</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <f>AVERAGE(C25:L25)</f>
         <v>5.0599999999999996</v>
       </c>
       <c r="N25" s="7">
         <v>5.0599999999999996</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="Q25" s="13">
+      <c r="O25" s="12"/>
+      <c r="Q25" s="12">
         <f>ROUND(STDEV(C25:L25),2)</f>
         <v>0.16</v>
       </c>
@@ -5673,15 +5691,15 @@
       <c r="L26" s="7">
         <v>6.5</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <f>AVERAGE(C26:L26)</f>
         <v>6.581999999999999</v>
       </c>
       <c r="N26" s="7">
         <v>6.58</v>
       </c>
-      <c r="O26" s="13"/>
-      <c r="Q26" s="13">
+      <c r="O26" s="12"/>
+      <c r="Q26" s="12">
         <f>ROUND(STDEV(C26:L26),2)</f>
         <v>0.38</v>
       </c>
@@ -5720,59 +5738,59 @@
       <c r="L27" s="7">
         <v>6.25</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <f>AVERAGE(C27:L27)</f>
         <v>6.3660000000000005</v>
       </c>
       <c r="N27" s="7">
         <v>6.37</v>
       </c>
-      <c r="O27" s="13"/>
-      <c r="Q27" s="13">
+      <c r="O27" s="12"/>
+      <c r="Q27" s="12">
         <f>ROUND(STDEV(C27:L27),2)</f>
         <v>0.13</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P28"/>
-      <c r="Q28" s="13"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P29"/>
-      <c r="Q29" s="13"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P30"/>
-      <c r="Q30" s="13"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P31"/>
-      <c r="Q31" s="13"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="P32"/>
-      <c r="Q32" s="13"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P33"/>
-      <c r="Q33" s="13"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P34"/>
-      <c r="Q34" s="13"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="P35"/>
-      <c r="Q35" s="13"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
@@ -5790,16 +5808,16 @@
       <c r="G36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="28"/>
+      <c r="I36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
@@ -5820,22 +5838,22 @@
       <c r="G37" s="7">
         <v>0.26</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="29">
         <f>ROUND(AVERAGE(C37:G37),2)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="29">
         <f>ROUND(_xlfn.STDEV.S(C37:G37),2)</f>
         <v>0.04</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
@@ -5856,58 +5874,58 @@
       <c r="G38" s="7">
         <v>0.25</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="29">
         <f>ROUND(AVERAGE(C38:G38),2)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="29">
         <f>ROUND(_xlfn.STDEV.S(C38:G38),2)</f>
         <v>0.05</v>
       </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="30"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
@@ -5925,16 +5943,16 @@
       <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="13" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="30"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -5955,22 +5973,22 @@
       <c r="G43" s="7">
         <v>0.25</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="29">
         <f>ROUND(AVERAGE(C43:G43),2)</f>
         <v>0.26</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="29">
         <f>ROUND(_xlfn.STDEV.S(C43:G43),2)</f>
         <v>0.02</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -5991,83 +6009,83 @@
       <c r="G44" s="7">
         <v>0.27</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="29">
         <f>ROUND(AVERAGE(C44:G44),2)</f>
         <v>0.27</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="29">
         <f>ROUND(_xlfn.STDEV.S(C44:G44),2)</f>
         <v>0.02</v>
       </c>
-      <c r="L44" s="30"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="29"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="30"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="30"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="30"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P49"/>
-      <c r="Q49" s="13"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="P50"/>
-      <c r="Q50" s="13"/>
+      <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
@@ -6085,12 +6103,12 @@
       <c r="G51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="13" t="s">
+      <c r="H51" s="28"/>
+      <c r="I51" s="12" t="s">
         <v>26</v>
       </c>
       <c r="P51"/>
-      <c r="Q51" s="13"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
@@ -6111,16 +6129,16 @@
       <c r="G52" s="7">
         <v>0.25</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="12">
         <f>ROUND(AVERAGE(C52:G52),2)</f>
         <v>0.3</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="29">
         <f>ROUND(_xlfn.STDEV.S(C52:G52),2)</f>
         <v>0.04</v>
       </c>
       <c r="P52"/>
-      <c r="Q52" s="13"/>
+      <c r="Q52" s="12"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
@@ -6141,68 +6159,68 @@
       <c r="G53" s="7">
         <v>0.37</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="12">
         <f>ROUND(AVERAGE(C53:G53),2)</f>
         <v>0.41</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="29">
         <f>ROUND(_xlfn.STDEV.S(C53:G53),2)</f>
         <v>0.05</v>
       </c>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="29"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="28"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="29"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="28"/>
     </row>
     <row r="55" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="29"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="28"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="29"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="28"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
@@ -6220,19 +6238,19 @@
       <c r="G57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="13" t="s">
+      <c r="H57" s="28"/>
+      <c r="I57" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="29"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="28"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
@@ -6253,23 +6271,23 @@
       <c r="G58" s="7">
         <v>0.25</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="29">
         <f>ROUND(AVERAGE(C58:G58),2)</f>
         <v>0.26</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="29">
         <f>ROUND(_xlfn.STDEV.S(C58:G58),2)</f>
         <v>0.02</v>
       </c>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="29"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="28"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
@@ -6290,70 +6308,70 @@
       <c r="G59" s="7">
         <v>0.26</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="29">
         <f>ROUND(AVERAGE(C59:G59),2)</f>
         <v>0.27</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="29">
         <f>ROUND(_xlfn.STDEV.S(C59:G59),2)</f>
         <v>0.02</v>
       </c>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="29"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="28"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="29"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="28"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="29"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="28"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>32</v>
       </c>
       <c r="P62"/>
-      <c r="Q62" s="13"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P63"/>
-      <c r="Q63" s="13"/>
+      <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P64"/>
-      <c r="Q64" s="13"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="P65"/>
-      <c r="Q65" s="13"/>
+      <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
@@ -6371,12 +6389,12 @@
       <c r="G66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="13" t="s">
+      <c r="H66" s="28"/>
+      <c r="I66" s="12" t="s">
         <v>26</v>
       </c>
       <c r="P66"/>
-      <c r="Q66" s="13"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
@@ -6397,16 +6415,16 @@
       <c r="G67" s="7">
         <v>0.25</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="12">
         <f>AVERAGE(C67:G67)</f>
         <v>0.27</v>
       </c>
-      <c r="I67" s="30">
-        <f>ROUND(_xlfn.STDEV.S(C67:H67),2)</f>
-        <v>0.01</v>
+      <c r="I67" s="29">
+        <f>ROUND(_xlfn.STDEV.S(C67:G67),2)</f>
+        <v>0.02</v>
       </c>
       <c r="P67"/>
-      <c r="Q67" s="13"/>
+      <c r="Q67" s="12"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
@@ -6427,40 +6445,40 @@
       <c r="G68" s="7">
         <v>0.38</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="12">
         <f>ROUND(AVERAGE(C68:G68),2)</f>
         <v>0.41</v>
       </c>
-      <c r="I68" s="30">
-        <f>ROUND(_xlfn.STDEV.S(C68:H68),2)</f>
-        <v>0.04</v>
+      <c r="I68" s="29">
+        <f>ROUND(_xlfn.STDEV.S(C68:G68),2)</f>
+        <v>0.05</v>
       </c>
       <c r="P68"/>
-      <c r="Q68" s="13"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
       <c r="P69"/>
-      <c r="Q69" s="13"/>
+      <c r="Q69" s="12"/>
     </row>
     <row r="70" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
       <c r="P70"/>
-      <c r="Q70" s="13"/>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
       <c r="P71"/>
-      <c r="Q71" s="13"/>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
@@ -6478,12 +6496,12 @@
       <c r="G72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="29"/>
-      <c r="I72" s="13" t="s">
+      <c r="H72" s="28"/>
+      <c r="I72" s="12" t="s">
         <v>26</v>
       </c>
       <c r="P72"/>
-      <c r="Q72" s="13"/>
+      <c r="Q72" s="12"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -6504,15 +6522,16 @@
       <c r="G73" s="7">
         <v>0.25</v>
       </c>
-      <c r="H73" s="30">
+      <c r="H73" s="29">
+        <f>ROUND(AVERAGE(C73:G73),2)</f>
         <v>0.25</v>
       </c>
-      <c r="I73" s="30">
-        <f>ROUND(_xlfn.STDEV.S(C73:H73),2)</f>
+      <c r="I73" s="29">
+        <f>ROUND(_xlfn.STDEV.S(C73:G73),2)</f>
         <v>0.01</v>
       </c>
       <c r="P73"/>
-      <c r="Q73" s="13"/>
+      <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -6533,48 +6552,49 @@
       <c r="G74" s="7">
         <v>0.26</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H74" s="29">
+        <f>ROUND(AVERAGE(C74:G74),2)</f>
         <v>0.26</v>
       </c>
-      <c r="I74" s="30">
-        <f>ROUND(_xlfn.STDEV.S(C74:H74),2)</f>
+      <c r="I74" s="29">
+        <f>ROUND(_xlfn.STDEV.S(C74:G74),2)</f>
         <v>0.01</v>
       </c>
       <c r="P74"/>
-      <c r="Q74" s="13"/>
+      <c r="Q74" s="12"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P75"/>
-      <c r="Q75" s="13"/>
+      <c r="Q75" s="12"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P76"/>
-      <c r="Q76" s="13"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>37</v>
       </c>
       <c r="P77"/>
-      <c r="Q77" s="13"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P78"/>
-      <c r="Q78" s="13"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P79"/>
-      <c r="Q79" s="13"/>
+      <c r="Q79" s="12"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="P80"/>
-      <c r="Q80" s="13"/>
+      <c r="Q80" s="12"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
@@ -6592,12 +6612,12 @@
       <c r="G81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="13" t="s">
+      <c r="H81" s="28"/>
+      <c r="I81" s="12" t="s">
         <v>26</v>
       </c>
       <c r="P81"/>
-      <c r="Q81" s="13"/>
+      <c r="Q81" s="12"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -6618,16 +6638,16 @@
       <c r="G82" s="7">
         <v>0.3</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="12">
         <f>ROUND(AVERAGE(C82:G82),2)</f>
         <v>0.27</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="29">
         <f>ROUND(_xlfn.STDEV.S(C82:G82),2)</f>
         <v>0.02</v>
       </c>
       <c r="P82"/>
-      <c r="Q82" s="13"/>
+      <c r="Q82" s="12"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
@@ -6648,40 +6668,40 @@
       <c r="G83" s="7">
         <v>0.44</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="12">
         <f>ROUND(AVERAGE(C83:G83),2)</f>
         <v>0.4</v>
       </c>
-      <c r="I83" s="30">
+      <c r="I83" s="29">
         <f>ROUND(_xlfn.STDEV.S(C83:G83),2)</f>
         <v>0.04</v>
       </c>
       <c r="P83"/>
-      <c r="Q83" s="13"/>
+      <c r="Q83" s="12"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
       <c r="P84"/>
-      <c r="Q84" s="13"/>
+      <c r="Q84" s="12"/>
     </row>
     <row r="85" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
       <c r="P85"/>
-      <c r="Q85" s="13"/>
+      <c r="Q85" s="12"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
       <c r="P86"/>
-      <c r="Q86" s="13"/>
+      <c r="Q86" s="12"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
@@ -6699,12 +6719,12 @@
       <c r="G87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="29"/>
-      <c r="I87" s="13" t="s">
+      <c r="H87" s="28"/>
+      <c r="I87" s="12" t="s">
         <v>26</v>
       </c>
       <c r="P87"/>
-      <c r="Q87" s="13"/>
+      <c r="Q87" s="12"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
@@ -6725,16 +6745,16 @@
       <c r="G88" s="7">
         <v>0.26</v>
       </c>
-      <c r="H88" s="30">
+      <c r="H88" s="29">
         <f>ROUND(AVERAGE(C88:G88),2)</f>
         <v>0.26</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="29">
         <f>ROUND(_xlfn.STDEV.S(C88:G88),2)</f>
         <v>0.01</v>
       </c>
       <c r="P88"/>
-      <c r="Q88" s="13"/>
+      <c r="Q88" s="12"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
@@ -6755,40 +6775,40 @@
       <c r="G89" s="7">
         <v>0.25</v>
       </c>
-      <c r="H89" s="30">
+      <c r="H89" s="29">
         <f>ROUND(AVERAGE(C89:G89),2)</f>
         <v>0.26</v>
       </c>
-      <c r="I89" s="30">
+      <c r="I89" s="29">
         <f>ROUND(_xlfn.STDEV.S(C89:G89),2)</f>
         <v>0.01</v>
       </c>
       <c r="P89"/>
-      <c r="Q89" s="13"/>
+      <c r="Q89" s="12"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P90"/>
-      <c r="Q90" s="13"/>
+      <c r="Q90" s="12"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P91"/>
-      <c r="Q91" s="13"/>
+      <c r="Q91" s="12"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P92"/>
-      <c r="Q92" s="13"/>
+      <c r="Q92" s="12"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P93"/>
-      <c r="Q93" s="13"/>
+      <c r="Q93" s="12"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P94"/>
-      <c r="Q94" s="13"/>
+      <c r="Q94" s="12"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P95"/>
-      <c r="Q95" s="13"/>
+      <c r="Q95" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6802,22 +6822,22 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13"/>
-    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
-    <col min="9" max="9" width="9.140625" style="13"/>
-    <col min="10" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12"/>
+    <col min="9" max="9" width="9.140625" style="12"/>
+    <col min="10" max="10" width="9.140625" style="19"/>
+    <col min="11" max="11" width="9.140625" style="12" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="13" max="13" width="9.140625" style="12"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="13"/>
+    <col min="15" max="15" width="9.140625" style="12"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
@@ -6826,10 +6846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="13">
         <f>AVERAGE(P6,P9)</f>
         <v>0.22264285714285714</v>
       </c>
@@ -6840,53 +6860,53 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="30"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7">
@@ -6925,17 +6945,17 @@
       <c r="M4" s="7">
         <v>0.15</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="43">
         <v>0.35</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="43">
         <v>0.02</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -6974,125 +6994,128 @@
       <c r="M5" s="7">
         <v>0.17</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="43">
         <v>0.38</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="43">
         <v>0.02</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="39">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="8">
+      <c r="C6" s="44"/>
+      <c r="D6" s="39">
         <v>0.68179999999999996</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="8">
+      <c r="E6" s="44"/>
+      <c r="F6" s="39">
         <v>0.2286</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="8">
+      <c r="G6" s="44"/>
+      <c r="H6" s="39">
         <v>0.1731</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="8">
+      <c r="I6" s="44"/>
+      <c r="J6" s="39">
         <v>0.18609999999999999</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="8">
+      <c r="K6" s="44"/>
+      <c r="L6" s="39">
         <v>0.1321</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="8">
+      <c r="M6" s="44"/>
+      <c r="N6" s="39">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="14">
+      <c r="O6" s="44"/>
+      <c r="P6" s="45">
         <f>AVERAGE(B6:N6)</f>
         <v>0.22464285714285712</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="V6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="26" t="s">
+      <c r="W6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="43">
         <v>0.52</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="43">
         <v>0.06</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="43">
         <v>0.17</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="43">
         <v>0.05</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="43">
         <v>0.37</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="43">
         <v>0.06</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="43">
         <v>0.69</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="43">
         <v>0.09</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="43">
         <v>0.61</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="43">
         <v>0.02</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="43">
         <v>0.38</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="43">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="43">
         <v>0.41</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="43">
         <v>0.03</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -7102,14 +7125,14 @@
       <c r="T7" s="7">
         <v>0.3</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="37">
         <v>0.04</v>
       </c>
       <c r="V7" s="7">
         <v>0.27</v>
       </c>
       <c r="W7" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X7" s="7">
         <v>0.27</v>
@@ -7119,53 +7142,53 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="43">
         <v>0.59</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="43">
         <v>0.03</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="43">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="43">
         <v>0.05</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="43">
         <v>0.42</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="43">
         <v>0.06</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="43">
         <v>0.76</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="43">
         <v>0.04</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="43">
         <v>0.65</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="43">
         <v>0.02</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="43">
         <v>0.44</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="43">
         <v>0.08</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="43">
         <v>0.51</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="43">
         <v>0.08</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -7175,14 +7198,14 @@
       <c r="T8" s="7">
         <v>0.41</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="37">
         <v>0.05</v>
       </c>
       <c r="V8" s="7">
         <v>0.41</v>
       </c>
       <c r="W8" s="7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X8" s="7">
         <v>0.4</v>
@@ -7192,161 +7215,231 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="39">
         <v>0.1346</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="8">
+      <c r="C9" s="44"/>
+      <c r="D9" s="39">
         <v>0.70589999999999997</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="8">
+      <c r="E9" s="44"/>
+      <c r="F9" s="39">
         <v>0.1351</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="8">
+      <c r="G9" s="44"/>
+      <c r="H9" s="39">
         <v>0.10150000000000001</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="8">
+      <c r="I9" s="44"/>
+      <c r="J9" s="39">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="8">
+      <c r="K9" s="44"/>
+      <c r="L9" s="39">
         <v>0.15790000000000001</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="8">
+      <c r="M9" s="44"/>
+      <c r="N9" s="39">
         <v>0.24390000000000001</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="14">
+      <c r="O9" s="44"/>
+      <c r="P9" s="45">
         <f>AVERAGE(B9:N9)</f>
         <v>0.22064285714285714</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="41">
+      <c r="Q9" s="29"/>
+      <c r="R9" s="40">
         <v>0</v>
       </c>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40">
+      <c r="S9" s="38"/>
+      <c r="T9" s="39">
         <v>0.36670000000000003</v>
       </c>
-      <c r="U9" s="27"/>
-      <c r="V9" s="42">
+      <c r="U9" s="26"/>
+      <c r="V9" s="41">
         <v>0.51849999999999996</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="42">
+      <c r="W9" s="38"/>
+      <c r="X9" s="41">
         <v>0.48149999999999998</v>
       </c>
-      <c r="Y9" s="39"/>
+      <c r="Y9" s="38"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J10"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J11"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="21"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <f>AVERAGE(P17,P20)</f>
         <v>-1.0635714285714287E-2</v>
       </c>
       <c r="J12"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="21"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="J13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="21"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="30"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="35">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="S14" s="38"/>
+      <c r="T14" s="35">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="U14" s="38"/>
+      <c r="V14" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="W14" s="38"/>
+      <c r="X14" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -7388,21 +7481,21 @@
       <c r="M15" s="7">
         <v>0.12</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="43">
         <v>0.35</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="43">
         <v>0.02</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -7444,330 +7537,235 @@
       <c r="M16" s="7">
         <v>0.12</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="43">
         <v>0.35</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="43">
         <v>0.02</v>
       </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="P16" s="29"/>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="47">
         <v>-0.02</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="10">
+      <c r="C17" s="44"/>
+      <c r="D17" s="39">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="10">
+      <c r="E17" s="44"/>
+      <c r="F17" s="39">
         <v>-2.3800000000000002E-2</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="9">
+      <c r="G17" s="44"/>
+      <c r="H17" s="47">
         <v>0</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="9">
+      <c r="I17" s="44"/>
+      <c r="J17" s="47">
         <v>0</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="10">
+      <c r="K17" s="44"/>
+      <c r="L17" s="39">
         <v>-4.4400000000000002E-2</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="9">
+      <c r="M17" s="44"/>
+      <c r="N17" s="47">
         <v>0</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="16">
+      <c r="O17" s="44"/>
+      <c r="P17" s="48">
         <f>AVERAGE(B17:N17)</f>
         <v>-8.2714285714285719E-3</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y17" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="43">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="43">
         <v>0.01</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="43">
         <v>0.17</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="43">
         <v>0.03</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="43">
         <v>0.36</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="43">
         <v>0.03</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="43">
         <v>0.72</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="43">
         <v>0.06</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="43">
         <v>0.62</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="43">
         <v>0.02</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="43">
         <v>0.41</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="43">
         <v>0.12</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="43">
         <v>0.42</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="43">
         <v>0.03</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="X18" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P18" s="46"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="43">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="43">
         <v>0.01</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="43">
         <v>0.16</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="43">
         <v>0.03</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="43">
         <v>0.36</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="43">
         <v>0.03</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="43">
         <v>0.72</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="43">
         <v>0.06</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="43">
         <v>0.63</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="43">
         <v>0.02</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="43">
         <v>0.4</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="43">
         <v>0.11</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="43">
         <v>0.41</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="43">
         <v>0.03</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="P19" s="46"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="47">
         <v>0</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="10">
+      <c r="C20" s="44"/>
+      <c r="D20" s="39">
         <v>-5.8799999999999998E-2</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="9">
+      <c r="E20" s="44"/>
+      <c r="F20" s="47">
         <v>0</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="9">
+      <c r="G20" s="44"/>
+      <c r="H20" s="47">
         <v>0</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="10">
+      <c r="I20" s="44"/>
+      <c r="J20" s="39">
         <v>1.61E-2</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="10">
+      <c r="K20" s="44"/>
+      <c r="L20" s="39">
         <v>-2.4400000000000002E-2</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="10">
+      <c r="M20" s="44"/>
+      <c r="N20" s="39">
         <v>-2.3900000000000001E-2</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="16">
+      <c r="O20" s="44"/>
+      <c r="P20" s="48">
         <f>AVERAGE(B20:N20)</f>
         <v>-1.3000000000000001E-2</v>
       </c>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="36">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="S20" s="39"/>
-      <c r="T20" s="36">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="U20" s="39"/>
-      <c r="V20" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="W20" s="39"/>
-      <c r="X20" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="39"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J21"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J23"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <f ca="1">AVERAGE(I29,I32)</f>
         <v>-4.2642857142857135E-3</v>
       </c>
       <c r="J24"/>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="J25"/>
-      <c r="Q25" s="20"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -7789,9 +7787,9 @@
       <c r="H26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="20"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -7816,12 +7814,12 @@
       <c r="H27" s="7">
         <v>4.84</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="20"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -7846,13 +7844,13 @@
       <c r="H28" s="7">
         <v>4.91</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="8">
@@ -7880,9 +7878,9 @@
         <f ca="1">AVERAGE(B29:M29)</f>
         <v>-5.1714285714285707E-3</v>
       </c>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q29" s="20"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -7907,12 +7905,12 @@
       <c r="H30" s="7">
         <v>6.66</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="21"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -7937,13 +7935,13 @@
       <c r="H31" s="7">
         <v>6.56</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="8">
@@ -7961,7 +7959,7 @@
       <c r="F32" s="8">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="16">
         <v>0</v>
       </c>
       <c r="H32" s="8">
@@ -7971,27 +7969,27 @@
         <f ca="1">AVERAGE(B32:M32)</f>
         <v>-3.3571428571428563E-3</v>
       </c>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="20"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C33"/>
       <c r="E33"/>
       <c r="G33"/>
       <c r="I33"/>
-      <c r="Q33" s="21"/>
+      <c r="Q33" s="20"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="I34"/>
-      <c r="Q34" s="21"/>
+      <c r="Q34" s="20"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <f ca="1">AVERAGE(I40,I43)</f>
         <v>1.4507142857142857E-2</v>
       </c>
@@ -7999,7 +7997,7 @@
       <c r="E35"/>
       <c r="G35"/>
       <c r="I35"/>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="20"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -8009,7 +8007,7 @@
       <c r="E36"/>
       <c r="G36"/>
       <c r="I36"/>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="20"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
@@ -8034,7 +8032,7 @@
         <v>24</v>
       </c>
       <c r="I37"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="20"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -8061,10 +8059,10 @@
       <c r="H38" s="7">
         <v>5.09</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q38" s="21"/>
+      <c r="Q38" s="20"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -8091,41 +8089,41 @@
       <c r="H39" s="7">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="21"/>
+      <c r="Q39" s="20"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>1.47E-2</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>-1.21E-2</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <f ca="1">AVERAGE(B40:M40)</f>
         <v>2.5757142857142857E-2</v>
       </c>
-      <c r="Q40" s="21"/>
+      <c r="Q40" s="20"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8152,10 +8150,10 @@
       <c r="H41" s="7">
         <v>6.58</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="21"/>
+      <c r="Q41" s="20"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -8182,41 +8180,41 @@
       <c r="H42" s="7">
         <v>6.37</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="21"/>
+      <c r="Q42" s="20"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>1.17E-2</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>-2.8299999999999999E-2</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>-3.1899999999999998E-2</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <f ca="1">AVERAGE(B43:M43)</f>
         <v>3.2571428571428565E-3</v>
       </c>
-      <c r="Q43" s="21"/>
+      <c r="Q43" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
